--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13826,16 +13826,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -5060,7 +5060,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13826,16 +13826,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Planta Solar Fotovoltaica Pampa Camarones</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ?AMPLIACIÓN PLANTA DE NITRATOS LAGUNAS?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,20 +434,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>ACF Baquedano S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>210000</v>
+        <v>35000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155105308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155092134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ?AMPLIACIÓN PLANTA DE NITRATOS LAGUNAS?</t>
+          <t>Modificación Planta Solar Fotovoltaica Pampa Camarones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ACF Baquedano S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35000</v>
+        <v>210000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155092134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155105308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,7 +16418,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Benavente SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,7 +16418,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,7 +16418,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CHILE SOLAR GENERACION UNO LIMITADA</t>
+          <t>Arica Solar Generación 1 SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CHILE SOLAR GENERACION UNO LIMITADA</t>
+          <t>Arica Solar Generación 1 SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,7 +16514,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,7 +16514,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19207,7 +19207,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Arica S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19255,7 +19255,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Arica S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -19207,7 +19207,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F234" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19508,7 +19508,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14018,16 +14018,16 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13970,16 +13970,16 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14018,16 +14018,16 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/07/2022</t>
+          <t>11/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14066,16 +14066,16 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14114,16 +14114,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,7 +16610,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14066,16 +14066,16 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14114,16 +14114,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,7 +16610,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>05/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>05/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14066,16 +14066,16 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14114,16 +14114,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,7 +16610,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14066,16 +14066,16 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14114,16 +14114,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14066,16 +14066,16 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14114,16 +14114,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14114,16 +14114,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14114,16 +14114,16 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/08/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>22/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -20119,7 +20119,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F412" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Desarrollos Fotovoltaicos de Chile S.A</t>
+          <t>INVERSIONES FOTOVOLTAICAS SpA</t>
         </is>
       </c>
       <c r="F113" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>Chapiquina Solar SpA</t>
         </is>
       </c>
       <c r="F31" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pesquero Solar SpA</t>
+          <t>Las Chilcas Solar SpA.</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Arica Solar Generación 2 Limitada</t>
+          <t>Arica Solar Generación 2 SpA.</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J435"/>
+  <dimension ref="A1:J437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21250,6 +21250,94 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Ddddd</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Decimoquinta</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603738&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>DD5555</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Decimoquinta</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132218976&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA (e-seia)</t>
+          <t>TERMINAL DE ACOPIO DE MINERALES EN EL PUERTO DE ARICA I REGION DE TARAPACA TAMP Arica (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1014774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20119,7 +20119,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F412" t="n">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>120</v>
+        <v>82000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
+          <t>PV Dos Cruces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Terminal Puerto Arica S.A.</t>
+          <t>SOLVENTUS CHILE Spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>82000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
+          <t>Incorporación de Nuevos Minerales al Actual Terminal de Embarque y Acopio de Gráneles Minerales - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PV Dos Cruces</t>
+          <t>Sistema de Almacenamiento y Consolidado de Gráneles Minerales Empacados - Puerto de Arica, XV Región</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SOLVENTUS CHILE Spa</t>
+          <t>Terminal Puerto Arica S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>82000</v>
+        <v>120</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6208209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6197743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
+          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Rosa Quispe Quispe</t>
+          <t>Naturoil S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Concentrado de Aceite de Pescado para Consumo Nutracéutico. (e-seia)</t>
+          <t>Almacenaje para Baterias Vehiculares en Desuso (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Naturoil S.A.</t>
+          <t>Rosa Quispe Quispe</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CORPESCA S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Suministro petróleo diesel naves de pesca desde lanchón norte Lanchón Norte (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>CORPESCA S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">

--- a/data/Arica.xlsx
+++ b/data/Arica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
